--- a/ShootingGame/Resources/EnemyData.xlsx
+++ b/ShootingGame/Resources/EnemyData.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20401"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C000BC5A-F83F-41D6-A35E-BD3C551BFF48}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PG\ShootingGame\ShootingGame\Resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B67A64A-5C6F-4554-9BAC-6B4082BDEF48}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17592" windowHeight="8220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EnemyData" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -23,80 +23,373 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>X座標</t>
-    <rPh sb="1" eb="3">
-      <t>ザヒョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Y座標</t>
-    <rPh sb="1" eb="3">
-      <t>ザヒョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出現タイミング</t>
+  </si>
+  <si>
+    <t>角度</t>
+  </si>
+  <si>
+    <t>敵スピード</t>
   </si>
   <si>
     <t>弾スピード</t>
-    <rPh sb="0" eb="1">
-      <t>タマ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>敵スピード</t>
-    <rPh sb="0" eb="1">
-      <t>テキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>出現タイミング</t>
-    <rPh sb="0" eb="2">
-      <t>シュツゲン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>HP</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>角度</t>
-    <rPh sb="0" eb="2">
-      <t>カクド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
-      <family val="2"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="游ゴシック Light"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="Yu Gothic"/>
-      <family val="3"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -104,15 +397,290 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="42">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - アクセント 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - アクセント 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - アクセント 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - アクセント 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - アクセント 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - アクセント 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - アクセント 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - アクセント 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - アクセント 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - アクセント 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - アクセント 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - アクセント 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - アクセント 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - アクセント 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - アクセント 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - アクセント 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - アクセント 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - アクセント 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="アクセント 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="アクセント 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="アクセント 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="アクセント 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="アクセント 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="アクセント 6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="タイトル" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="チェック セル" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="どちらでもない" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="メモ" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="リンク セル" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="悪い" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="計算" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="警告文" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="見出し 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="見出し 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="見出し 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="見出し 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="集計" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="出力" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="説明文" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="入力" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="良い" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -128,7 +696,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -144,7 +712,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -156,7 +724,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -173,7 +741,7 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -203,12 +771,29 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -238,6 +823,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -393,17 +995,12 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D7"/>
+      <selection activeCell="A2" sqref="A2:A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
-  <cols>
-    <col min="3" max="3" width="14.59765625" customWidth="1"/>
-    <col min="4" max="4" width="10.296875" customWidth="1"/>
-    <col min="5" max="5" width="10.09765625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -411,33 +1008,33 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D2">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -449,18 +1046,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="D3">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -472,18 +1069,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="D4">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -495,18 +1092,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5">
+        <v>120</v>
+      </c>
+      <c r="D5">
         <v>90</v>
-      </c>
-      <c r="D5">
-        <v>270</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -518,18 +1115,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D6">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -541,18 +1138,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="D7">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -565,7 +1162,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
+  <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/ShootingGame/Resources/EnemyData.xlsx
+++ b/ShootingGame/Resources/EnemyData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PG\ShootingGame\ShootingGame\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B67A64A-5C6F-4554-9BAC-6B4082BDEF48}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE8C3008-DD63-4351-8E8A-1ED7BC156A3C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17592" windowHeight="8220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -995,7 +995,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A7"/>
+      <selection activeCell="C2" sqref="C2:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1031,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D2">
         <v>90</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="D3">
         <v>90</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="D4">
         <v>90</v>
@@ -1100,7 +1100,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="D5">
         <v>90</v>
@@ -1123,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="D6">
         <v>90</v>
@@ -1146,7 +1146,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="D7">
         <v>90</v>

--- a/ShootingGame/Resources/EnemyData.xlsx
+++ b/ShootingGame/Resources/EnemyData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PG\ShootingGame\ShootingGame\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE8C3008-DD63-4351-8E8A-1ED7BC156A3C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B67A64A-5C6F-4554-9BAC-6B4082BDEF48}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17592" windowHeight="8220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -995,7 +995,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C7"/>
+      <selection activeCell="A2" sqref="A2:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1031,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D2">
         <v>90</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="D3">
         <v>90</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="D4">
         <v>90</v>
@@ -1100,7 +1100,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="D5">
         <v>90</v>
@@ -1123,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="D6">
         <v>90</v>
@@ -1146,7 +1146,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="D7">
         <v>90</v>

--- a/ShootingGame/Resources/EnemyData.xlsx
+++ b/ShootingGame/Resources/EnemyData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PG\ShootingGame\ShootingGame\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B67A64A-5C6F-4554-9BAC-6B4082BDEF48}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5ABCE9E-3DA4-44FB-A1F3-F38A47045CA7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17592" windowHeight="8220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>X座標</t>
   </si>
@@ -41,6 +41,10 @@
   </si>
   <si>
     <t>HP</t>
+  </si>
+  <si>
+    <t>スコア</t>
+    <phoneticPr fontId="18"/>
   </si>
 </sst>
 </file>
@@ -992,15 +996,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A7"/>
+      <selection activeCell="D8" sqref="D8:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1022,10 +1026,13 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1045,10 +1052,13 @@
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>100</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1068,10 +1078,13 @@
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>100</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1091,10 +1104,13 @@
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>100</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1114,10 +1130,13 @@
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>100</v>
+      </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1137,10 +1156,13 @@
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>100</v>
+      </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1159,6 +1181,165 @@
       </c>
       <c r="G7">
         <v>1</v>
+      </c>
+      <c r="H7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>740</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>30</v>
+      </c>
+      <c r="D8">
+        <v>90</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>790</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>60</v>
+      </c>
+      <c r="D9">
+        <v>90</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>840</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>90</v>
+      </c>
+      <c r="D10">
+        <v>90</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>5</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>890</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>120</v>
+      </c>
+      <c r="D11">
+        <v>90</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>5</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>940</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>150</v>
+      </c>
+      <c r="D12">
+        <v>90</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>5</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>990</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>180</v>
+      </c>
+      <c r="D13">
+        <v>90</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/ShootingGame/Resources/EnemyData.xlsx
+++ b/ShootingGame/Resources/EnemyData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PG\ShootingGame\ShootingGame\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5ABCE9E-3DA4-44FB-A1F3-F38A47045CA7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C59DA0D5-C243-4407-AD46-DCDB97C41ADB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17592" windowHeight="8220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>X座標</t>
   </si>
@@ -44,6 +44,13 @@
   </si>
   <si>
     <t>スコア</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>弾数</t>
+    <rPh sb="0" eb="2">
+      <t>タマカズ</t>
+    </rPh>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -996,15 +1003,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:H13"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1024,13 +1031,16 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>300</v>
       </c>
@@ -1050,13 +1060,16 @@
         <v>5</v>
       </c>
       <c r="G2">
+        <v>4</v>
+      </c>
+      <c r="H2">
         <v>1</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>250</v>
       </c>
@@ -1076,13 +1089,16 @@
         <v>5</v>
       </c>
       <c r="G3">
+        <v>4</v>
+      </c>
+      <c r="H3">
         <v>1</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>200</v>
       </c>
@@ -1102,13 +1118,16 @@
         <v>5</v>
       </c>
       <c r="G4">
+        <v>4</v>
+      </c>
+      <c r="H4">
         <v>1</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>150</v>
       </c>
@@ -1128,13 +1147,16 @@
         <v>5</v>
       </c>
       <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="H5">
         <v>1</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>100</v>
       </c>
@@ -1154,13 +1176,16 @@
         <v>5</v>
       </c>
       <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="H6">
         <v>1</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>50</v>
       </c>
@@ -1180,13 +1205,16 @@
         <v>5</v>
       </c>
       <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7">
         <v>1</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>740</v>
       </c>
@@ -1206,13 +1234,16 @@
         <v>5</v>
       </c>
       <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="H8">
         <v>1</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>790</v>
       </c>
@@ -1232,13 +1263,16 @@
         <v>5</v>
       </c>
       <c r="G9">
+        <v>4</v>
+      </c>
+      <c r="H9">
         <v>1</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>840</v>
       </c>
@@ -1258,13 +1292,16 @@
         <v>5</v>
       </c>
       <c r="G10">
+        <v>4</v>
+      </c>
+      <c r="H10">
         <v>1</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>890</v>
       </c>
@@ -1284,13 +1321,16 @@
         <v>5</v>
       </c>
       <c r="G11">
+        <v>4</v>
+      </c>
+      <c r="H11">
         <v>1</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>940</v>
       </c>
@@ -1310,13 +1350,16 @@
         <v>5</v>
       </c>
       <c r="G12">
+        <v>4</v>
+      </c>
+      <c r="H12">
         <v>1</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>990</v>
       </c>
@@ -1336,9 +1379,12 @@
         <v>5</v>
       </c>
       <c r="G13">
+        <v>3</v>
+      </c>
+      <c r="H13">
         <v>1</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>100</v>
       </c>
     </row>
